--- a/Loadshedding.xlsx
+++ b/Loadshedding.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\19160\Desktop\dw\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A0BBB6FD-B83C-489D-9DE5-EB75B79CDCA3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{52B2E7C9-9968-48B2-BBF6-57BF9AD06C72}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1900" yWindow="1900" windowWidth="19200" windowHeight="9960" xr2:uid="{2CF077B9-0CBF-4488-882E-9D88862A41F9}"/>
+    <workbookView xWindow="380" yWindow="380" windowWidth="19200" windowHeight="9920" xr2:uid="{2CF077B9-0CBF-4488-882E-9D88862A41F9}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>

--- a/Loadshedding.xlsx
+++ b/Loadshedding.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\19160\Desktop\dw\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{52B2E7C9-9968-48B2-BBF6-57BF9AD06C72}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EADD077C-47EE-4CEC-9B60-742069D0F52D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="380" yWindow="380" windowWidth="19200" windowHeight="9920" xr2:uid="{2CF077B9-0CBF-4488-882E-9D88862A41F9}"/>
   </bookViews>

--- a/Loadshedding.xlsx
+++ b/Loadshedding.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\19160\Desktop\dw\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EADD077C-47EE-4CEC-9B60-742069D0F52D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BFC0387A-0AEF-460A-8BFE-E93F7668870D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="380" yWindow="380" windowWidth="19200" windowHeight="9920" xr2:uid="{2CF077B9-0CBF-4488-882E-9D88862A41F9}"/>
+    <workbookView xWindow="2263" yWindow="2263" windowWidth="16457" windowHeight="8426" xr2:uid="{2CF077B9-0CBF-4488-882E-9D88862A41F9}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -398,9 +398,9 @@
       <selection sqref="A1:X16"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="14.15" x14ac:dyDescent="0.35"/>
   <sheetData>
-    <row r="1" spans="1:24" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:24" x14ac:dyDescent="0.35">
       <c r="A1">
         <v>0</v>
       </c>
@@ -474,7 +474,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="2" spans="1:24" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:24" x14ac:dyDescent="0.35">
       <c r="A2">
         <v>0</v>
       </c>
@@ -548,7 +548,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="3" spans="1:24" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:24" x14ac:dyDescent="0.35">
       <c r="A3">
         <v>0</v>
       </c>
@@ -622,7 +622,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="4" spans="1:24" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:24" x14ac:dyDescent="0.35">
       <c r="A4">
         <v>0</v>
       </c>
@@ -696,7 +696,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="5" spans="1:24" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:24" x14ac:dyDescent="0.35">
       <c r="A5">
         <v>0</v>
       </c>
@@ -770,7 +770,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:24" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:24" x14ac:dyDescent="0.35">
       <c r="A6">
         <v>0</v>
       </c>
@@ -844,7 +844,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="7" spans="1:24" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:24" x14ac:dyDescent="0.35">
       <c r="A7">
         <v>0</v>
       </c>
@@ -918,7 +918,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="8" spans="1:24" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:24" x14ac:dyDescent="0.35">
       <c r="A8">
         <v>0</v>
       </c>
@@ -992,7 +992,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="9" spans="1:24" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:24" x14ac:dyDescent="0.35">
       <c r="A9">
         <v>0</v>
       </c>
@@ -1066,7 +1066,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="10" spans="1:24" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:24" x14ac:dyDescent="0.35">
       <c r="A10">
         <v>0</v>
       </c>
@@ -1140,7 +1140,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="11" spans="1:24" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:24" x14ac:dyDescent="0.35">
       <c r="A11">
         <v>0</v>
       </c>
@@ -1214,7 +1214,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="12" spans="1:24" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:24" x14ac:dyDescent="0.35">
       <c r="A12">
         <v>0</v>
       </c>
@@ -1288,7 +1288,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="13" spans="1:24" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:24" x14ac:dyDescent="0.35">
       <c r="A13">
         <v>0</v>
       </c>
@@ -1362,7 +1362,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="14" spans="1:24" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:24" x14ac:dyDescent="0.35">
       <c r="A14">
         <v>0</v>
       </c>
@@ -1436,7 +1436,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="15" spans="1:24" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:24" x14ac:dyDescent="0.35">
       <c r="A15">
         <v>0</v>
       </c>
@@ -1510,7 +1510,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="16" spans="1:24" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:24" x14ac:dyDescent="0.35">
       <c r="A16">
         <v>0</v>
       </c>

--- a/Loadshedding.xlsx
+++ b/Loadshedding.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\19160\Desktop\dw\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BFC0387A-0AEF-460A-8BFE-E93F7668870D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{42EDF0C8-C4C5-4251-B0A7-2E49F61A7D4D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="2263" yWindow="2263" windowWidth="16457" windowHeight="8426" xr2:uid="{2CF077B9-0CBF-4488-882E-9D88862A41F9}"/>
+    <workbookView xWindow="1520" yWindow="1520" windowWidth="14400" windowHeight="7220" xr2:uid="{2CF077B9-0CBF-4488-882E-9D88862A41F9}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -398,9 +398,9 @@
       <selection sqref="A1:X16"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.15" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultRowHeight="14" x14ac:dyDescent="0.3"/>
   <sheetData>
-    <row r="1" spans="1:24" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:24" x14ac:dyDescent="0.3">
       <c r="A1">
         <v>0</v>
       </c>
@@ -474,7 +474,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="2" spans="1:24" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:24" x14ac:dyDescent="0.3">
       <c r="A2">
         <v>0</v>
       </c>
@@ -548,7 +548,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="3" spans="1:24" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:24" x14ac:dyDescent="0.3">
       <c r="A3">
         <v>0</v>
       </c>
@@ -622,7 +622,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="4" spans="1:24" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:24" x14ac:dyDescent="0.3">
       <c r="A4">
         <v>0</v>
       </c>
@@ -696,7 +696,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="5" spans="1:24" x14ac:dyDescent="0.35">
+    <row r="5" spans="1:24" x14ac:dyDescent="0.3">
       <c r="A5">
         <v>0</v>
       </c>
@@ -770,7 +770,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:24" x14ac:dyDescent="0.35">
+    <row r="6" spans="1:24" x14ac:dyDescent="0.3">
       <c r="A6">
         <v>0</v>
       </c>
@@ -844,7 +844,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="7" spans="1:24" x14ac:dyDescent="0.35">
+    <row r="7" spans="1:24" x14ac:dyDescent="0.3">
       <c r="A7">
         <v>0</v>
       </c>
@@ -918,7 +918,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="8" spans="1:24" x14ac:dyDescent="0.35">
+    <row r="8" spans="1:24" x14ac:dyDescent="0.3">
       <c r="A8">
         <v>0</v>
       </c>
@@ -992,7 +992,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="9" spans="1:24" x14ac:dyDescent="0.35">
+    <row r="9" spans="1:24" x14ac:dyDescent="0.3">
       <c r="A9">
         <v>0</v>
       </c>
@@ -1066,7 +1066,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="10" spans="1:24" x14ac:dyDescent="0.35">
+    <row r="10" spans="1:24" x14ac:dyDescent="0.3">
       <c r="A10">
         <v>0</v>
       </c>
@@ -1140,7 +1140,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="11" spans="1:24" x14ac:dyDescent="0.35">
+    <row r="11" spans="1:24" x14ac:dyDescent="0.3">
       <c r="A11">
         <v>0</v>
       </c>
@@ -1214,7 +1214,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="12" spans="1:24" x14ac:dyDescent="0.35">
+    <row r="12" spans="1:24" x14ac:dyDescent="0.3">
       <c r="A12">
         <v>0</v>
       </c>
@@ -1288,7 +1288,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="13" spans="1:24" x14ac:dyDescent="0.35">
+    <row r="13" spans="1:24" x14ac:dyDescent="0.3">
       <c r="A13">
         <v>0</v>
       </c>
@@ -1362,7 +1362,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="14" spans="1:24" x14ac:dyDescent="0.35">
+    <row r="14" spans="1:24" x14ac:dyDescent="0.3">
       <c r="A14">
         <v>0</v>
       </c>
@@ -1436,7 +1436,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="15" spans="1:24" x14ac:dyDescent="0.35">
+    <row r="15" spans="1:24" x14ac:dyDescent="0.3">
       <c r="A15">
         <v>0</v>
       </c>
@@ -1510,7 +1510,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="16" spans="1:24" x14ac:dyDescent="0.35">
+    <row r="16" spans="1:24" x14ac:dyDescent="0.3">
       <c r="A16">
         <v>0</v>
       </c>

--- a/Loadshedding.xlsx
+++ b/Loadshedding.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\19160\Desktop\dw\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{42EDF0C8-C4C5-4251-B0A7-2E49F61A7D4D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{67B10A87-F362-4EB6-938B-DC8E90C4A860}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1520" yWindow="1520" windowWidth="14400" windowHeight="7220" xr2:uid="{2CF077B9-0CBF-4488-882E-9D88862A41F9}"/>
+    <workbookView xWindow="2304" yWindow="2304" windowWidth="17280" windowHeight="8772" xr2:uid="{2CF077B9-0CBF-4488-882E-9D88862A41F9}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -395,12 +395,12 @@
   <dimension ref="A1:X16"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection sqref="A1:X16"/>
+      <selection sqref="A1:X15"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
   <sheetData>
-    <row r="1" spans="1:24" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A1">
         <v>0</v>
       </c>
@@ -429,31 +429,31 @@
         <v>0</v>
       </c>
       <c r="J1">
-        <v>19</v>
+        <v>0</v>
       </c>
       <c r="K1">
-        <v>19</v>
+        <v>0</v>
       </c>
       <c r="L1">
-        <v>19</v>
+        <v>0</v>
       </c>
       <c r="M1">
-        <v>19</v>
+        <v>0</v>
       </c>
       <c r="N1">
-        <v>19</v>
+        <v>0</v>
       </c>
       <c r="O1">
-        <v>19</v>
+        <v>0</v>
       </c>
       <c r="P1">
-        <v>19</v>
+        <v>0</v>
       </c>
       <c r="Q1">
-        <v>19</v>
+        <v>0</v>
       </c>
       <c r="R1">
-        <v>19</v>
+        <v>8.1000000000000014</v>
       </c>
       <c r="S1">
         <v>0</v>
@@ -474,7 +474,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="2" spans="1:24" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A2">
         <v>0</v>
       </c>
@@ -548,7 +548,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="3" spans="1:24" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A3">
         <v>0</v>
       </c>
@@ -571,43 +571,43 @@
         <v>0</v>
       </c>
       <c r="H3">
-        <v>0</v>
+        <v>11.219999999999999</v>
       </c>
       <c r="I3">
-        <v>0</v>
+        <v>14.96</v>
       </c>
       <c r="J3">
-        <v>96.949999999999847</v>
+        <v>18.7</v>
       </c>
       <c r="K3">
-        <v>96.949999999999847</v>
+        <v>0</v>
       </c>
       <c r="L3">
-        <v>96.949999999999847</v>
+        <v>0</v>
       </c>
       <c r="M3">
-        <v>96.949999999999847</v>
+        <v>0</v>
       </c>
       <c r="N3">
-        <v>96.949999999999847</v>
+        <v>0</v>
       </c>
       <c r="O3">
-        <v>96.949999999999847</v>
+        <v>0</v>
       </c>
       <c r="P3">
-        <v>96.949999999999847</v>
+        <v>0</v>
       </c>
       <c r="Q3">
-        <v>96.949999999999847</v>
+        <v>18.7</v>
       </c>
       <c r="R3">
-        <v>96.949999999999847</v>
+        <v>18.7</v>
       </c>
       <c r="S3">
-        <v>0</v>
+        <v>14.96</v>
       </c>
       <c r="T3">
-        <v>0</v>
+        <v>11.219999999999999</v>
       </c>
       <c r="U3">
         <v>0</v>
@@ -622,7 +622,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="4" spans="1:24" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A4">
         <v>0</v>
       </c>
@@ -696,7 +696,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="5" spans="1:24" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A5">
         <v>0</v>
       </c>
@@ -746,10 +746,10 @@
         <v>0</v>
       </c>
       <c r="Q5">
-        <v>0</v>
+        <v>3.0182186247850176</v>
       </c>
       <c r="R5">
-        <v>0</v>
+        <v>27.2</v>
       </c>
       <c r="S5">
         <v>0</v>
@@ -770,7 +770,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:24" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A6">
         <v>0</v>
       </c>
@@ -793,43 +793,43 @@
         <v>0</v>
       </c>
       <c r="H6">
-        <v>0</v>
+        <v>4.3799999999999955</v>
       </c>
       <c r="I6">
-        <v>0</v>
+        <v>48</v>
       </c>
       <c r="J6">
-        <v>0</v>
+        <v>60</v>
       </c>
       <c r="K6">
-        <v>0</v>
+        <v>43.199999999999967</v>
       </c>
       <c r="L6">
-        <v>0</v>
+        <v>43.199999999999967</v>
       </c>
       <c r="M6">
-        <v>0</v>
+        <v>43.199999999999967</v>
       </c>
       <c r="N6">
-        <v>0</v>
+        <v>43.199999999999967</v>
       </c>
       <c r="O6">
-        <v>0</v>
+        <v>43.199999999999967</v>
       </c>
       <c r="P6">
-        <v>0</v>
+        <v>43.199999999999967</v>
       </c>
       <c r="Q6">
-        <v>0</v>
+        <v>60</v>
       </c>
       <c r="R6">
-        <v>0</v>
+        <v>60</v>
       </c>
       <c r="S6">
-        <v>0</v>
+        <v>48</v>
       </c>
       <c r="T6">
-        <v>0</v>
+        <v>4.3799999999999955</v>
       </c>
       <c r="U6">
         <v>0</v>
@@ -844,7 +844,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="7" spans="1:24" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A7">
         <v>0</v>
       </c>
@@ -870,10 +870,10 @@
         <v>0</v>
       </c>
       <c r="I7">
-        <v>0</v>
+        <v>11.839999999999989</v>
       </c>
       <c r="J7">
-        <v>0</v>
+        <v>2.2656448835752485</v>
       </c>
       <c r="K7">
         <v>0</v>
@@ -894,13 +894,13 @@
         <v>0</v>
       </c>
       <c r="Q7">
-        <v>0</v>
+        <v>20</v>
       </c>
       <c r="R7">
-        <v>0</v>
+        <v>20</v>
       </c>
       <c r="S7">
-        <v>0</v>
+        <v>11.839999999999989</v>
       </c>
       <c r="T7">
         <v>0</v>
@@ -918,7 +918,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="8" spans="1:24" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A8">
         <v>0</v>
       </c>
@@ -992,7 +992,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="9" spans="1:24" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A9">
         <v>0</v>
       </c>
@@ -1066,7 +1066,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="10" spans="1:24" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A10">
         <v>0</v>
       </c>
@@ -1140,7 +1140,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="11" spans="1:24" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A11">
         <v>0</v>
       </c>
@@ -1214,7 +1214,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="12" spans="1:24" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A12">
         <v>0</v>
       </c>
@@ -1288,7 +1288,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="13" spans="1:24" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A13">
         <v>0</v>
       </c>
@@ -1362,7 +1362,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="14" spans="1:24" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A14">
         <v>0</v>
       </c>
@@ -1436,7 +1436,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="15" spans="1:24" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A15">
         <v>0</v>
       </c>
@@ -1510,7 +1510,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="16" spans="1:24" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A16">
         <v>0</v>
       </c>
